--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/10/seed3/result_data_RandomForest.xlsx
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.664500000000004</v>
+        <v>8.403200000000005</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.253100000000002</v>
+        <v>6.3757</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.606200000000004</v>
+        <v>-7.856200000000002</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.541800000000003</v>
+        <v>5.286700000000003</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
